--- a/data/trans_bre/P19C06-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P19C06-Edad-trans_bre.xlsx
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.673391449984305</v>
+        <v>-1.621313625847608</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.161948669815592</v>
+        <v>-2.097501440887783</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.183582654652873</v>
+        <v>-1.247143805789739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.07106469931844</v>
+        <v>-2.953040245228635</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
@@ -686,21 +686,19 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.396160183583561</v>
+        <v>1.298550191933473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7508755001678677</v>
+        <v>0.7295590100384697</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.693014021505983</v>
+        <v>1.681446551991476</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.040736999377611</v>
+        <v>1.100179842209379</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="n">
-        <v>2.704525561213425</v>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -725,7 +723,7 @@
         <v>0.1845253222298931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.4496762240132356</v>
+        <v>0.4496762240132358</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04681978812274556</v>
@@ -737,7 +735,7 @@
         <v>0.1597700320740374</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.756491233570238</v>
+        <v>0.7564912335702383</v>
       </c>
     </row>
     <row r="8">
@@ -748,25 +746,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.012496011908417</v>
+        <v>-0.8800558592474059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.234286247818597</v>
+        <v>-1.145994176904009</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.320183816927724</v>
+        <v>-1.284871579456801</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.7182049205806705</v>
+        <v>-0.797658686301038</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8739562736299372</v>
+        <v>-0.879384194324268</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.8668510913920648</v>
+        <v>-0.8920254170214184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7512654501566061</v>
+        <v>-0.7310035055911684</v>
       </c>
       <c r="J8" s="6" t="inlineStr"/>
     </row>
@@ -778,25 +776,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.108675604105428</v>
+        <v>1.062401446760146</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.200239579343583</v>
+        <v>1.263429236437482</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.537928684700564</v>
+        <v>1.526588817094529</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.691673794940097</v>
+        <v>1.600899197298832</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>6.225456503079243</v>
+        <v>4.880015314417093</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.273228194940863</v>
+        <v>3.903056932848074</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.818894809566671</v>
+        <v>3.615359338909752</v>
       </c>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
@@ -821,7 +819,7 @@
         <v>0.1490157808012537</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5886962766040552</v>
+        <v>0.5886962766040553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7667174065455149</v>
@@ -833,7 +831,7 @@
         <v>0.1930095859488005</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3.114821870442127</v>
+        <v>3.114821870442128</v>
       </c>
     </row>
     <row r="11">
@@ -844,25 +842,25 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5328118743532064</v>
+        <v>-0.6901234626638535</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1535791309422616</v>
+        <v>-0.1816915004779412</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.987089704149329</v>
+        <v>-0.8947180937159183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.07350783622687521</v>
+        <v>-0.09926000041501602</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5254865665563492</v>
+        <v>-0.6034535201005923</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1732589600779114</v>
+        <v>-0.2189450321965354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.8632443195864453</v>
+        <v>-0.8116783948219307</v>
       </c>
       <c r="J11" s="6" t="inlineStr"/>
     </row>
@@ -874,25 +872,25 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.977387888749268</v>
+        <v>1.722619261226104</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.778122382575916</v>
+        <v>2.74224471781734</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.290828700984616</v>
+        <v>1.373469489945344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.372447899942676</v>
+        <v>1.41209437275731</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>8.088136071737408</v>
+        <v>6.66386802991489</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>4.62111440047428</v>
+        <v>4.566264874127418</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.996250500251977</v>
+        <v>6.026387780863813</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -940,28 +938,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4971795048573637</v>
+        <v>0.3850909929439718</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-1.331779079275417</v>
+        <v>-1.149708165513275</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.914470105637117</v>
+        <v>-1.862887933006114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.9967224130553681</v>
+        <v>-0.7829126441594293</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.007007472803333376</v>
+        <v>-0.1258446958795649</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7146052524367394</v>
+        <v>-0.6792000381914095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8750230632062026</v>
+        <v>-0.8877104353470662</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5275257777269899</v>
+        <v>-0.4741089344453095</v>
       </c>
     </row>
     <row r="15">
@@ -972,26 +970,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.487096037251944</v>
+        <v>3.489937625639837</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.923626501558236</v>
+        <v>2.124913139066353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.000537449612626</v>
+        <v>0.9565054200147366</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.482852787623438</v>
+        <v>1.476839711115983</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>3.398658362849562</v>
+        <v>4.223657281819515</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.743784658614259</v>
+        <v>1.937432228112659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.972275243523185</v>
+        <v>3.105044445458845</v>
       </c>
     </row>
     <row r="16">
@@ -1015,7 +1013,7 @@
         <v>0.6093590613989983</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.4532440139506674</v>
+        <v>0.4532440139506676</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6547179137084094</v>
@@ -1027,7 +1025,7 @@
         <v>0.363459607591246</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4482535658521109</v>
+        <v>0.4482535658521111</v>
       </c>
     </row>
     <row r="17">
@@ -1038,26 +1036,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.557470986782331</v>
+        <v>-4.235173666225292</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.861292037126375</v>
+        <v>-1.178746443248886</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.749603797325926</v>
+        <v>-1.551469522634311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.6491358586496607</v>
+        <v>-0.6847943573970411</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="H17" s="6" t="inlineStr"/>
+      <c r="H17" s="6" t="n">
+        <v>-0.7454718903780516</v>
+      </c>
       <c r="I17" s="6" t="n">
-        <v>-0.68414331874075</v>
+        <v>-0.6599133205827478</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4618145134098739</v>
+        <v>-0.4793750792654716</v>
       </c>
     </row>
     <row r="18">
@@ -1068,26 +1068,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5858811997143938</v>
+        <v>0.3972295155005952</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.019377584188852</v>
+        <v>1.944707323426495</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.64112353128549</v>
+        <v>2.653285495424211</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.463033086434141</v>
+        <v>1.449258977850442</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.118642350783486</v>
+        <v>1.110951756852862</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>3.741789661952317</v>
+        <v>4.2126020854788</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.646470131130874</v>
+        <v>2.601200332850754</v>
       </c>
     </row>
     <row r="19">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-3.069815019342523</v>
+        <v>-3.188766391710428</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.502073575684871</v>
+        <v>-1.339490397084891</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.097934817282791</v>
+        <v>-3.04803523460272</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.9725327324764284</v>
+        <v>-0.9830867405126521</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.7141072291141639</v>
+        <v>-0.7554415798144074</v>
       </c>
     </row>
     <row r="21">
@@ -1160,22 +1160,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6883888703121543</v>
+        <v>0.6561277444458261</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.519601194321734</v>
+        <v>1.632278310398194</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.434552465727576</v>
+        <v>1.427037033121528</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.252183917316332</v>
+        <v>1.240660580017218</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>3.575860722488293</v>
+        <v>3.70957376681995</v>
       </c>
     </row>
     <row r="22">
@@ -1224,22 +1224,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.440940588929244</v>
+        <v>-6.910333485966214</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3630157119888459</v>
+        <v>0.3602102417155825</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.554006399252079</v>
+        <v>-1.83022169866402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.4761773828095474</v>
+        <v>-0.4796638875442562</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>-0.8196951039968532</v>
+        <v>-0.7733555590327853</v>
       </c>
     </row>
     <row r="24">
@@ -1250,16 +1250,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3278158772709862</v>
+        <v>0.095134285920725</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.080106279635114</v>
+        <v>3.116397873607161</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.653341140702348</v>
+        <v>3.548255045828785</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.090693086356219</v>
+        <v>1.069236396123111</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1287,7 +1287,7 @@
         <v>0.1488719082256411</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.3269573330675047</v>
+        <v>0.3269573330675045</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03022429080149189</v>
@@ -1299,7 +1299,7 @@
         <v>0.1255090793798994</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.4255271800235892</v>
+        <v>0.4255271800235887</v>
       </c>
     </row>
     <row r="26">
@@ -1310,28 +1310,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.4706827163968827</v>
+        <v>-0.5134694869571934</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.2039080958841344</v>
+        <v>-0.155789285464881</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.4705819248817095</v>
+        <v>-0.5228567643781511</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.09631078962392019</v>
+        <v>-0.08507951021242785</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3490944689780424</v>
+        <v>-0.36908475805797</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1578645169328441</v>
+        <v>-0.1416218847279958</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3284540956984169</v>
+        <v>-0.3371076834150449</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1272319180065038</v>
+        <v>-0.08925037572473347</v>
       </c>
     </row>
     <row r="27">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6902727331147817</v>
+        <v>0.6111253853238487</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9844204861408061</v>
+        <v>1.021836300704154</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.721664634573663</v>
+        <v>0.7516725601918328</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7844702622351629</v>
+        <v>0.7202183748818868</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9274065858514481</v>
+        <v>0.7883410630180512</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.340132238726879</v>
+        <v>1.343920548015306</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8203258481407122</v>
+        <v>0.8750652494812505</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.463886867297474</v>
+        <v>1.433402904635598</v>
       </c>
     </row>
     <row r="28">
